--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:22:53+00:00</t>
+    <t>2025-07-31T14:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:57:51+00:00</t>
+    <t>2025-07-31T15:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:04:06+00:00</t>
+    <t>2025-07-31T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:00:40+00:00</t>
+    <t>2025-07-31T17:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:28:56+00:00</t>
+    <t>2025-08-01T05:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T05:49:55+00:00</t>
+    <t>2025-08-01T06:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2173,17 +2173,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2192,27 +2192,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:09:21+00:00</t>
+    <t>2025-08-01T06:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2173,17 +2173,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2192,27 +2192,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:28:22+00:00</t>
+    <t>2025-08-01T06:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:28+00:00</t>
+    <t>2025-08-01T06:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2173,17 +2173,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2192,27 +2192,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:49:21+00:00</t>
+    <t>2025-09-10T13:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -748,7 +748,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -845,7 +845,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1030,7 +1030,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1054,7 +1054,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1119,7 +1119,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1145,7 +1145,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1230,7 +1230,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1255,7 +1255,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1419,7 +1419,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1454,7 +1454,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1485,7 +1485,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1507,7 +1507,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1589,7 +1589,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1634,7 +1634,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1655,7 +1655,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1676,7 +1676,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1712,7 +1712,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1748,7 +1748,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1841,7 +1841,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -2173,17 +2173,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2192,27 +2192,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:27:38+00:00</t>
+    <t>2025-09-15T14:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:58:18+00:00</t>
+    <t>2025-09-16T12:38:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T12:38:50+00:00</t>
+    <t>2025-09-17T15:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:36:32+00:00</t>
+    <t>2025-09-17T15:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:51:47+00:00</t>
+    <t>2025-09-19T12:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T12:04:16+00:00</t>
+    <t>2025-09-24T12:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:27:45+00:00</t>
+    <t>2025-09-24T14:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -748,7 +748,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -845,7 +845,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1030,7 +1030,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1054,7 +1054,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1119,7 +1119,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
+    <t xml:space="preserve">Reference(EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1145,7 +1145,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1230,7 +1230,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1255,7 +1255,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|4.0.1)
+    <t xml:space="preserve">Reference(Appointment)
 </t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1419,7 +1419,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1454,7 +1454,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(Condition|Procedure)
 </t>
   </si>
   <si>
@@ -1485,7 +1485,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1507,7 +1507,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account|4.0.1)
+    <t xml:space="preserve">Reference(Account)
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
+    <t xml:space="preserve">Reference(Location|Organization)
 </t>
   </si>
   <si>
@@ -1589,7 +1589,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1634,7 +1634,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1655,7 +1655,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1676,7 +1676,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1712,7 +1712,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1748,7 +1748,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1841,7 +1841,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2173,17 +2173,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2192,27 +2192,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:43:36+00:00</t>
+    <t>2025-10-16T12:41:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -568,7 +568,11 @@
     <t>Commentaire relatif au séjour</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour.</t>
+    <t xml:space="preserve">
+- **Séjour** : commentaire relatif au séjour.
+- **Événement** : commentaires sur le déroulé de l’évènement.
+- **Évaluation** : commentaire libre sur le contenu ou le résultat de l’évaluation.
+- **Champ évalué** : commentaire spécifique à un item ou sous-item évalué.</t>
   </si>
   <si>
     <t>commentaire</t>
@@ -626,21 +630,6 @@
     <t>PV1-19</t>
   </si>
   <si>
-    <t>Encounter.identifier:idStay</t>
-  </si>
-  <si>
-    <t>idStay</t>
-  </si>
-  <si>
-    <t>Identifiant métier unique du séjour</t>
-  </si>
-  <si>
-    <t>idSejour</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.id</t>
-  </si>
-  <si>
     <t>Encounter.identifier.id</t>
   </si>
   <si>
@@ -660,9 +649,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Encounter.identifier:idStay.extension</t>
-  </si>
-  <si>
     <t>Encounter.identifier.extension</t>
   </si>
   <si>
@@ -678,9 +664,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Encounter.identifier:idStay.use</t>
-  </si>
-  <si>
     <t>Encounter.identifier.use</t>
   </si>
   <si>
@@ -709,9 +692,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.type</t>
   </si>
   <si>
     <t>Encounter.identifier.type</t>
@@ -731,6 +711,143 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-SEJOUR-numeroDossier.</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay</t>
+  </si>
+  <si>
+    <t>idStay</t>
+  </si>
+  <si>
+    <t>Identifiant métier unique du séjour</t>
+  </si>
+  <si>
+    <t>idSejour</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.id</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.use</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -742,129 +859,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.system</t>
   </si>
   <si>
-    <t>Encounter.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.value</t>
   </si>
   <si>
-    <t>Encounter.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.period</t>
   </si>
   <si>
-    <t>Encounter.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.assigner</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Encounter.status</t>
@@ -1030,7 +1034,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1054,7 +1058,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1119,7 +1123,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1145,7 +1149,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1200,7 +1204,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1230,7 +1234,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1255,7 +1259,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1401,7 +1405,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1419,7 +1423,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1454,7 +1458,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1485,7 +1489,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1507,7 +1511,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1564,7 +1568,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1589,7 +1593,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1634,7 +1638,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1655,7 +1659,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1676,7 +1680,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1712,7 +1716,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1748,7 +1752,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1804,7 +1808,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1841,7 +1845,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -2164,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2173,17 +2177,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2192,27 +2196,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4207,17 +4211,15 @@
         <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4229,16 +4231,16 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4289,53 +4291,53 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4347,7 +4349,7 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>202</v>
@@ -4355,7 +4357,9 @@
       <c r="M19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4392,31 +4396,31 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -4425,7 +4429,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4439,41 +4443,43 @@
         <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4497,43 +4503,43 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4542,21 +4548,21 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4573,25 +4579,25 @@
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4616,13 +4622,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4640,7 +4646,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4661,21 +4667,21 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>133</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4683,7 +4689,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4698,19 +4704,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4720,10 +4726,10 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>81</v>
@@ -4735,31 +4741,31 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4780,7 +4786,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4794,7 +4800,7 @@
         <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4817,20 +4823,18 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>81</v>
@@ -4878,7 +4882,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4899,21 +4903,21 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4936,17 +4940,15 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4959,7 +4961,7 @@
         <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>81</v>
@@ -4995,7 +4997,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5016,21 +5018,21 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5053,15 +5055,17 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5110,7 +5114,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5131,29 +5135,31 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5168,17 +5174,15 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5227,13 +5231,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -5242,27 +5246,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5270,7 +5274,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5279,23 +5283,21 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5320,13 +5322,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5344,10 +5346,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5356,34 +5358,34 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5402,16 +5404,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5449,19 +5451,19 @@
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5473,7 +5475,7 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5482,7 +5484,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5493,10 +5495,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5513,22 +5515,26 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5552,13 +5558,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5576,7 +5582,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5588,7 +5594,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5597,32 +5603,32 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5631,21 +5637,23 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>81</v>
@@ -5669,13 +5677,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5693,19 +5701,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5714,56 +5722,56 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5776,7 +5784,7 @@
         <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>81</v>
@@ -5812,19 +5820,19 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5833,21 +5841,21 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5855,7 +5863,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -5867,18 +5875,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5891,7 +5901,7 @@
         <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>81</v>
@@ -5903,13 +5913,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5927,10 +5937,10 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>90</v>
@@ -5948,21 +5958,21 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5970,7 +5980,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
@@ -5982,16 +5992,16 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6042,10 +6052,10 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>90</v>
@@ -6063,21 +6073,21 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6085,7 +6095,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6100,15 +6110,17 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6133,13 +6145,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6157,10 +6169,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -6178,21 +6190,21 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>306</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6200,30 +6212,32 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6248,13 +6262,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6272,13 +6286,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -6290,24 +6304,24 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6318,7 +6332,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6330,15 +6344,17 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6387,19 +6403,19 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6408,7 +6424,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6419,21 +6435,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6445,17 +6461,15 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6504,19 +6518,19 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6525,7 +6539,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6536,14 +6550,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6556,26 +6570,24 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6644,7 +6656,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6655,42 +6667,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6714,13 +6730,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6738,19 +6754,19 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6759,7 +6775,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6770,10 +6786,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6796,13 +6812,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6829,13 +6845,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6853,7 +6869,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>90</v>
@@ -6874,7 +6890,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6885,10 +6901,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6896,10 +6912,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6908,20 +6924,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6946,13 +6960,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6970,13 +6984,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6988,24 +7002,24 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7013,7 +7027,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>90</v>
@@ -7028,13 +7042,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7061,13 +7075,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7085,10 +7099,10 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>90</v>
@@ -7103,24 +7117,24 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7131,7 +7145,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7143,13 +7157,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7176,13 +7190,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7200,13 +7214,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7221,29 +7235,29 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
@@ -7255,20 +7269,18 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7317,7 +7329,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>199</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7329,34 +7341,34 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7372,18 +7384,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7432,7 +7446,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7444,34 +7458,34 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7484,22 +7498,26 @@
         <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7547,7 +7565,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7559,16 +7577,16 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7579,10 +7597,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7590,10 +7608,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7602,16 +7620,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7638,13 +7656,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7662,13 +7680,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7680,24 +7698,24 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7705,7 +7723,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -7720,13 +7738,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7777,10 +7795,10 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7789,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7798,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7809,14 +7827,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7832,19 +7850,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7870,13 +7888,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7894,7 +7912,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7906,66 +7924,62 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7989,13 +8003,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8013,42 +8027,42 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8059,7 +8073,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -8068,20 +8082,18 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8106,13 +8118,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8130,13 +8142,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8148,32 +8160,32 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>383</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
@@ -8185,18 +8197,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8245,7 +8259,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8260,27 +8274,27 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8291,7 +8305,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8303,13 +8317,13 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8360,13 +8374,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8378,28 +8392,28 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>200</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8415,16 +8429,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8475,7 +8489,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8496,21 +8510,21 @@
         <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8521,7 +8535,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8530,20 +8544,18 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8592,13 +8604,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8610,24 +8622,24 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8650,13 +8662,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8707,7 +8719,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8728,7 +8740,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8739,10 +8751,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8768,10 +8780,10 @@
         <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>183</v>
@@ -8812,19 +8824,19 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8845,7 +8857,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8856,44 +8868,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>291</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>292</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8941,42 +8955,42 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8987,7 +9001,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8999,24 +9013,22 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q59" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9036,13 +9048,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9060,42 +9072,42 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>431</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9118,17 +9130,15 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9177,7 +9187,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9195,35 +9205,35 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>438</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9235,17 +9245,15 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9270,13 +9278,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9294,13 +9302,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9312,28 +9320,28 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9352,17 +9360,15 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9411,7 +9417,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9429,24 +9435,24 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>449</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9457,7 +9463,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9466,18 +9472,20 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9526,13 +9534,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9544,24 +9552,24 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9584,13 +9592,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9641,7 +9649,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9662,7 +9670,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9673,10 +9681,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9702,10 +9710,10 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>183</v>
@@ -9746,19 +9754,19 @@
         <v>81</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9779,7 +9787,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9790,46 +9798,44 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9877,50 +9883,50 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>293</v>
+        <v>418</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -9935,22 +9941,24 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="R67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9994,42 +10002,42 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>467</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10052,15 +10060,17 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>225</v>
+        <v>433</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10085,13 +10095,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10109,7 +10119,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10127,35 +10137,35 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10164,18 +10174,20 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>474</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10200,13 +10212,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10224,13 +10236,13 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
@@ -10242,28 +10254,28 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10279,19 +10291,19 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10341,7 +10353,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10359,24 +10371,24 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10387,7 +10399,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10396,20 +10408,18 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10458,13 +10468,13 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
@@ -10479,7 +10489,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10490,10 +10500,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10516,13 +10526,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10573,7 +10583,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10594,7 +10604,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10605,10 +10615,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10634,10 +10644,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>183</v>
@@ -10690,7 +10700,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10711,7 +10721,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10722,10 +10732,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10841,18 +10851,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>90</v>
@@ -10864,18 +10874,20 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>187</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10924,10 +10936,10 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>90</v>
@@ -10942,24 +10954,24 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>192</v>
+        <v>466</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>495</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10982,13 +10994,13 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>497</v>
+        <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11015,13 +11027,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -11039,7 +11051,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11060,7 +11072,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11071,10 +11083,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11097,13 +11109,13 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>225</v>
+        <v>474</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11130,13 +11142,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11154,7 +11166,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11175,21 +11187,21 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11200,7 +11212,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11212,15 +11224,17 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>225</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11245,13 +11259,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11269,13 +11283,13 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
@@ -11290,21 +11304,21 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>205</v>
+        <v>483</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11315,7 +11329,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
@@ -11327,20 +11341,18 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11364,13 +11376,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11388,13 +11400,13 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
@@ -11409,21 +11421,21 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11434,7 +11446,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
@@ -11446,13 +11458,13 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>197</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>198</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11479,13 +11491,13 @@
         <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11503,19 +11515,19 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>199</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
@@ -11524,25 +11536,25 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>528</v>
+        <v>200</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11561,15 +11573,17 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
+        <v>202</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11594,13 +11608,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>533</v>
+        <v>81</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -11618,7 +11632,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>530</v>
+        <v>205</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11630,7 +11644,7 @@
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
@@ -11639,53 +11653,57 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>535</v>
+        <v>200</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>538</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11733,19 +11751,19 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>293</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
@@ -11754,21 +11772,21 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>540</v>
+        <v>133</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11791,13 +11809,13 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11824,13 +11842,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>546</v>
+        <v>81</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -11848,7 +11866,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11869,21 +11887,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>547</v>
+        <v>192</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>548</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11894,7 +11912,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -11906,17 +11924,15 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>283</v>
+        <v>497</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -11965,13 +11981,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -11986,7 +12002,7 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -11997,10 +12013,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12023,13 +12039,13 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>202</v>
+        <v>502</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>203</v>
+        <v>503</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12056,13 +12072,13 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>81</v>
+        <v>504</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -12080,7 +12096,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>204</v>
+        <v>501</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12092,7 +12108,7 @@
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
@@ -12101,32 +12117,32 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>205</v>
+        <v>506</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12138,17 +12154,15 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>208</v>
+        <v>509</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
@@ -12173,13 +12187,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12197,19 +12211,19 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>211</v>
+        <v>508</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -12218,25 +12232,25 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12249,25 +12263,25 @@
         <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>291</v>
+        <v>515</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>292</v>
+        <v>516</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>183</v>
+        <v>517</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>184</v>
+        <v>518</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12292,13 +12306,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -12316,7 +12330,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>293</v>
+        <v>514</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12328,7 +12342,7 @@
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -12337,21 +12351,21 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12359,10 +12373,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -12374,13 +12388,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>558</v>
+        <v>217</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12407,13 +12421,13 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
@@ -12431,13 +12445,13 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
@@ -12449,24 +12463,24 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>561</v>
+        <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>394</v>
+        <v>528</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>562</v>
+        <v>81</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12477,7 +12491,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>81</v>
@@ -12489,17 +12503,15 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12524,13 +12536,13 @@
         <v>81</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -12548,13 +12560,13 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
@@ -12569,21 +12581,21 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>81</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12606,17 +12618,15 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>225</v>
+        <v>497</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -12641,13 +12651,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>575</v>
+        <v>81</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12665,7 +12675,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12686,21 +12696,21 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12723,13 +12733,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12756,13 +12766,13 @@
         <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>81</v>
@@ -12780,7 +12790,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12801,21 +12811,21 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>387</v>
+        <v>547</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>81</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12823,10 +12833,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
@@ -12838,15 +12848,17 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>581</v>
+        <v>283</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -12895,13 +12907,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -12910,27 +12922,27 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12953,17 +12965,15 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>588</v>
+        <v>196</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>197</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13012,33 +13022,965 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
+      <c r="B101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AK101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AM101" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AN93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO93" t="s" s="2">
+      <c r="AN101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -630,6 +630,21 @@
     <t>PV1-19</t>
   </si>
   <si>
+    <t>Encounter.identifier:idStay</t>
+  </si>
+  <si>
+    <t>idStay</t>
+  </si>
+  <si>
+    <t>Identifiant métier unique du séjour</t>
+  </si>
+  <si>
+    <t>idSejour</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.id</t>
+  </si>
+  <si>
     <t>Encounter.identifier.id</t>
   </si>
   <si>
@@ -649,6 +664,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>Encounter.identifier:idStay.extension</t>
+  </si>
+  <si>
     <t>Encounter.identifier.extension</t>
   </si>
   <si>
@@ -664,6 +682,9 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Encounter.identifier:idStay.use</t>
+  </si>
+  <si>
     <t>Encounter.identifier.use</t>
   </si>
   <si>
@@ -692,6 +713,9 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.type</t>
   </si>
   <si>
     <t>Encounter.identifier.type</t>
@@ -711,143 +735,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.value</t>
-  </si>
-  <si>
-    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-SEJOUR-numeroDossier.</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay</t>
-  </si>
-  <si>
-    <t>idStay</t>
-  </si>
-  <si>
-    <t>Identifiant métier unique du séjour</t>
-  </si>
-  <si>
-    <t>idSejour</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.use</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -859,16 +746,129 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
     <t>Encounter.identifier:idStay.system</t>
   </si>
   <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
     <t>Encounter.identifier:idStay.value</t>
   </si>
   <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
     <t>Encounter.identifier:idStay.period</t>
   </si>
   <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
     <t>Encounter.identifier:idStay.assigner</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Encounter.status</t>
@@ -2168,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO101"/>
+  <dimension ref="A1:AO93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4211,15 +4211,17 @@
         <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4231,16 +4233,16 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4291,53 +4293,53 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4349,7 +4351,7 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>202</v>
@@ -4357,9 +4359,7 @@
       <c r="M19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4396,40 +4396,40 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4443,43 +4443,41 @@
         <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4503,43 +4501,43 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4548,21 +4546,21 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4579,25 +4577,25 @@
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4622,13 +4620,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4646,7 +4644,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4667,21 +4665,21 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>226</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4689,7 +4687,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4704,19 +4702,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4726,28 +4724,28 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="U22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4765,7 +4763,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4786,7 +4784,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4800,7 +4798,7 @@
         <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4823,18 +4821,20 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>81</v>
@@ -4882,7 +4882,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4903,21 +4903,21 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4940,15 +4940,17 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4961,7 +4963,7 @@
         <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>81</v>
@@ -4997,7 +4999,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5018,21 +5020,21 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5055,17 +5057,15 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5114,7 +5114,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5135,31 +5135,29 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5174,15 +5172,17 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5231,13 +5231,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -5246,27 +5246,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>194</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5283,21 +5283,23 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5322,13 +5324,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5346,10 +5348,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5358,34 +5360,34 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5404,16 +5406,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5451,19 +5453,19 @@
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5475,7 +5477,7 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5484,7 +5486,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5495,10 +5497,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5515,26 +5517,22 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5558,13 +5556,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5582,7 +5580,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5594,7 +5592,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5603,32 +5601,32 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5637,23 +5635,21 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5662,7 +5658,7 @@
         <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>81</v>
@@ -5677,13 +5673,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5701,19 +5697,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5722,56 +5718,56 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5784,7 +5780,7 @@
         <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>81</v>
@@ -5820,19 +5816,19 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5841,21 +5837,21 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5863,7 +5859,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -5875,20 +5871,18 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5901,7 +5895,7 @@
         <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>81</v>
@@ -5913,13 +5907,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5937,10 +5931,10 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>90</v>
@@ -5958,21 +5952,21 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5980,7 +5974,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
@@ -5992,16 +5986,16 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6052,10 +6046,10 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>90</v>
@@ -6073,21 +6067,21 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6095,7 +6089,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6110,17 +6104,15 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6145,13 +6137,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6169,10 +6161,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -6190,21 +6182,21 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>258</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6212,32 +6204,30 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6262,13 +6252,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6286,13 +6276,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -6304,24 +6294,24 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6332,7 +6322,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6344,17 +6334,15 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6403,19 +6391,19 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6424,7 +6412,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6435,21 +6423,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6461,15 +6449,17 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6518,19 +6508,19 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6539,7 +6529,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6550,14 +6540,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6570,24 +6560,26 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6635,7 +6627,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6656,7 +6648,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6667,46 +6659,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6730,13 +6718,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6754,19 +6742,19 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6775,7 +6763,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6786,10 +6774,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6812,13 +6800,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6845,13 +6833,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6869,7 +6857,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>90</v>
@@ -6890,7 +6878,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6901,10 +6889,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6912,10 +6900,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6924,18 +6912,20 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6960,13 +6950,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6984,13 +6974,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -7002,24 +6992,24 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7027,7 +7017,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>90</v>
@@ -7042,13 +7032,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7075,13 +7065,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7099,10 +7089,10 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>90</v>
@@ -7117,24 +7107,24 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7145,7 +7135,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7157,13 +7147,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7190,13 +7180,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7214,13 +7204,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7235,29 +7225,29 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
@@ -7269,18 +7259,20 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7329,7 +7321,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>199</v>
+        <v>342</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7341,34 +7333,34 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7384,20 +7376,18 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>202</v>
+        <v>355</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7446,7 +7436,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7458,34 +7448,34 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7498,26 +7488,22 @@
         <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7565,7 +7551,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7577,16 +7563,16 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7597,10 +7583,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7608,10 +7594,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7620,16 +7606,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7656,13 +7642,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7680,13 +7666,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7698,24 +7684,24 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>200</v>
+        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7723,7 +7709,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -7738,13 +7724,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7795,10 +7781,10 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7807,7 +7793,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7816,7 +7802,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7827,14 +7813,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7850,19 +7836,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7888,13 +7874,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7912,7 +7898,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7924,62 +7910,66 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8003,13 +7993,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8027,42 +8017,42 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8073,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -8082,18 +8072,20 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8118,13 +8110,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8142,13 +8134,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8160,32 +8152,32 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>341</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
@@ -8197,20 +8189,18 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>344</v>
+        <v>257</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8259,7 +8249,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8274,27 +8264,27 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8305,7 +8295,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8317,13 +8307,13 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8374,13 +8364,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8392,28 +8382,28 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>200</v>
+        <v>394</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8429,16 +8419,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8489,7 +8479,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8510,21 +8500,21 @@
         <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8535,7 +8525,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8544,18 +8534,20 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8604,13 +8596,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8622,24 +8614,24 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8662,13 +8654,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8719,7 +8711,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8740,7 +8732,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8751,10 +8743,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8780,10 +8772,10 @@
         <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>183</v>
@@ -8824,19 +8816,19 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8857,7 +8849,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8868,46 +8860,44 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8955,42 +8945,42 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>293</v>
+        <v>418</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9001,7 +8991,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -9013,22 +9003,24 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>217</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="R59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9048,13 +9040,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9072,42 +9064,42 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>383</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9130,15 +9122,17 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9187,7 +9181,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9205,35 +9199,35 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9245,15 +9239,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9278,13 +9274,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9302,13 +9298,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9320,28 +9316,28 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>396</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9360,15 +9356,17 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9417,7 +9415,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9435,24 +9433,24 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>402</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9463,7 +9461,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9472,20 +9470,18 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9534,13 +9530,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9552,24 +9548,24 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9592,13 +9588,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9649,7 +9645,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9670,7 +9666,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9681,10 +9677,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9710,10 +9706,10 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>183</v>
@@ -9754,19 +9750,19 @@
         <v>81</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9787,7 +9783,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9798,44 +9794,46 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>291</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
+        <v>292</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9883,50 +9881,50 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -9941,24 +9939,22 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q67" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10002,42 +9998,42 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>431</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10060,17 +10056,15 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>433</v>
+        <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10095,13 +10089,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10119,7 +10113,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10137,35 +10131,35 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10174,20 +10168,18 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>217</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10212,13 +10204,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10236,13 +10228,13 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
@@ -10254,28 +10246,28 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10291,19 +10283,19 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10353,7 +10345,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10371,24 +10363,24 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10399,7 +10391,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10408,18 +10400,20 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10468,13 +10462,13 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
@@ -10489,7 +10483,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10500,10 +10494,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10526,13 +10520,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10583,7 +10577,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10604,7 +10598,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10615,10 +10609,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10644,10 +10638,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>183</v>
@@ -10700,7 +10694,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10721,7 +10715,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10732,10 +10726,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10851,18 +10845,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>90</v>
@@ -10874,20 +10868,18 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>187</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10936,10 +10928,10 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>90</v>
@@ -10954,24 +10946,24 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>466</v>
+        <v>192</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>467</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10994,13 +10986,13 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>217</v>
+        <v>497</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11027,13 +11019,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -11051,7 +11043,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11072,7 +11064,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11083,10 +11075,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11109,13 +11101,13 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>474</v>
+        <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11142,13 +11134,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>81</v>
+        <v>504</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11166,7 +11158,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11187,21 +11179,21 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11212,7 +11204,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11224,17 +11216,15 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>479</v>
+        <v>225</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11259,13 +11249,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11283,13 +11273,13 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
@@ -11304,21 +11294,21 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>483</v>
+        <v>205</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11329,7 +11319,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
@@ -11341,18 +11331,20 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11376,13 +11368,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11400,13 +11392,13 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
@@ -11421,21 +11413,21 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11446,7 +11438,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
@@ -11458,13 +11450,13 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>197</v>
+        <v>524</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>198</v>
+        <v>525</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11491,13 +11483,13 @@
         <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11515,19 +11507,19 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>199</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
@@ -11536,25 +11528,25 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>200</v>
+        <v>528</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>81</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11573,17 +11565,15 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>202</v>
+        <v>531</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11608,13 +11598,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -11632,7 +11622,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>205</v>
+        <v>530</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11644,7 +11634,7 @@
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
@@ -11653,57 +11643,53 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>200</v>
+        <v>535</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>81</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>291</v>
+        <v>538</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11751,19 +11737,19 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>293</v>
+        <v>537</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
@@ -11772,21 +11758,21 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>133</v>
+        <v>540</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11809,13 +11795,13 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11842,13 +11828,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -11866,7 +11852,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11887,21 +11873,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>192</v>
+        <v>547</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>495</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11912,7 +11898,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -11924,15 +11910,17 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>497</v>
+        <v>283</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -11981,13 +11969,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -12002,7 +11990,7 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12013,10 +12001,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12039,13 +12027,13 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>502</v>
+        <v>202</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>503</v>
+        <v>203</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12072,13 +12060,13 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -12096,7 +12084,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>501</v>
+        <v>204</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12108,7 +12096,7 @@
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
@@ -12117,32 +12105,32 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>506</v>
+        <v>205</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12154,15 +12142,17 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>509</v>
+        <v>208</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
@@ -12187,13 +12177,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12211,19 +12201,19 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>508</v>
+        <v>211</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -12232,25 +12222,25 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12263,25 +12253,25 @@
         <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
+        <v>291</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>516</v>
+        <v>292</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>517</v>
+        <v>183</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>518</v>
+        <v>184</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12306,13 +12296,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -12330,7 +12320,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>514</v>
+        <v>293</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12342,7 +12332,7 @@
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -12351,21 +12341,21 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>521</v>
+        <v>133</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12373,10 +12363,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -12388,13 +12378,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>217</v>
+        <v>558</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12421,13 +12411,13 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
@@ -12445,13 +12435,13 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
@@ -12463,24 +12453,24 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>528</v>
+        <v>394</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>529</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12491,7 +12481,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>81</v>
@@ -12503,15 +12493,17 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12536,13 +12528,13 @@
         <v>81</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -12560,13 +12552,13 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
@@ -12581,21 +12573,21 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12618,15 +12610,17 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>497</v>
+        <v>225</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -12651,13 +12645,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12675,7 +12669,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12696,21 +12690,21 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12733,13 +12727,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12766,13 +12760,13 @@
         <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>546</v>
+        <v>81</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>81</v>
@@ -12790,7 +12784,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12811,21 +12805,21 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>547</v>
+        <v>387</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12833,10 +12827,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
@@ -12848,17 +12842,15 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>283</v>
+        <v>581</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -12907,13 +12899,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -12922,27 +12914,27 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12965,15 +12957,17 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>196</v>
+        <v>588</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>197</v>
+        <v>589</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13022,7 +13016,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>199</v>
+        <v>587</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13034,953 +13028,21 @@
         <v>81</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>200</v>
+        <v>593</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO101" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-sejour.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -4806,7 +4809,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4843,10 +4846,10 @@
         <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>81</v>
@@ -4882,7 +4885,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4903,21 +4906,21 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4925,7 +4928,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
@@ -4943,13 +4946,13 @@
         <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4963,7 +4966,7 @@
         <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>81</v>
@@ -4999,7 +5002,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5020,21 +5023,21 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5057,13 +5060,13 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5114,7 +5117,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5135,21 +5138,21 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5172,16 +5175,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5231,7 +5234,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5252,21 +5255,21 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5292,13 +5295,13 @@
         <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5327,10 +5330,10 @@
         <v>218</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5348,7 +5351,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>90</v>
@@ -5366,24 +5369,24 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5406,16 +5409,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5465,7 +5468,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5497,10 +5500,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5612,10 +5615,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5729,14 +5732,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5758,10 +5761,10 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>183</v>
@@ -5816,7 +5819,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5848,10 +5851,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5877,10 +5880,10 @@
         <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5910,10 +5913,10 @@
         <v>218</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5931,7 +5934,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>90</v>
@@ -5963,10 +5966,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5989,13 +5992,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6046,7 +6049,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>90</v>
@@ -6078,10 +6081,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6104,13 +6107,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6140,10 +6143,10 @@
         <v>231</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6161,7 +6164,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>90</v>
@@ -6182,21 +6185,21 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6219,13 +6222,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6276,7 +6279,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6308,10 +6311,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6423,10 +6426,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6540,14 +6543,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6569,10 +6572,10 @@
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>183</v>
@@ -6627,7 +6630,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6659,10 +6662,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6685,13 +6688,13 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6721,10 +6724,10 @@
         <v>231</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6742,7 +6745,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>90</v>
@@ -6774,10 +6777,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6800,13 +6803,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6857,7 +6860,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>90</v>
@@ -6889,10 +6892,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6918,13 +6921,13 @@
         <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6950,13 +6953,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6974,7 +6977,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6992,24 +6995,24 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7035,10 +7038,10 @@
         <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7065,13 +7068,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7089,7 +7092,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7107,7 +7110,7 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>205</v>
@@ -7116,15 +7119,15 @@
         <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7150,10 +7153,10 @@
         <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7180,13 +7183,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7204,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7225,25 +7228,25 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7262,16 +7265,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7321,7 +7324,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7336,27 +7339,27 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7379,13 +7382,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7436,7 +7439,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7454,28 +7457,28 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7494,13 +7497,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7551,7 +7554,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7569,10 +7572,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7583,10 +7586,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7609,13 +7612,13 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7666,7 +7669,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7684,24 +7687,24 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7813,10 +7816,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7930,14 +7933,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7959,10 +7962,10 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>183</v>
@@ -8017,7 +8020,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8049,10 +8052,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8078,13 +8081,13 @@
         <v>225</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8113,10 +8116,10 @@
         <v>231</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8134,7 +8137,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8152,24 +8155,24 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8192,13 +8195,13 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8249,7 +8252,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8270,21 +8273,21 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8307,13 +8310,13 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8364,7 +8367,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8382,24 +8385,24 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8422,13 +8425,13 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8479,7 +8482,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8497,24 +8500,24 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8537,16 +8540,16 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8596,7 +8599,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8614,24 +8617,24 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8743,10 +8746,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8860,10 +8863,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8886,16 +8889,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8945,7 +8948,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8954,33 +8957,33 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9003,23 +9006,23 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>81</v>
@@ -9064,7 +9067,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9073,33 +9076,33 @@
         <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9122,16 +9125,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9181,7 +9184,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9199,28 +9202,28 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9242,13 +9245,13 @@
         <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9277,10 +9280,10 @@
         <v>114</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9298,7 +9301,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9316,28 +9319,28 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9356,16 +9359,16 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9415,7 +9418,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9433,24 +9436,24 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9473,13 +9476,13 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9530,7 +9533,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9551,7 +9554,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9562,10 +9565,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9677,10 +9680,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9794,14 +9797,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9823,10 +9826,10 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>183</v>
@@ -9881,7 +9884,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9913,14 +9916,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9939,16 +9942,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9998,7 +10001,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10016,24 +10019,24 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10059,10 +10062,10 @@
         <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10092,10 +10095,10 @@
         <v>114</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10113,7 +10116,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10145,10 +10148,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10171,13 +10174,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10228,7 +10231,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10249,7 +10252,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10260,10 +10263,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10286,16 +10289,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10345,7 +10348,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10366,7 +10369,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10377,10 +10380,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10403,16 +10406,16 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10462,7 +10465,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10483,7 +10486,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10494,10 +10497,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10609,10 +10612,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10726,14 +10729,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10755,10 +10758,10 @@
         <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>183</v>
@@ -10813,7 +10816,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10845,10 +10848,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10874,10 +10877,10 @@
         <v>187</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10928,7 +10931,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10955,15 +10958,15 @@
         <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10986,13 +10989,13 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11043,7 +11046,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11064,7 +11067,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11075,10 +11078,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11104,10 +11107,10 @@
         <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11137,10 +11140,10 @@
         <v>114</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11158,7 +11161,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11179,21 +11182,21 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11219,10 +11222,10 @@
         <v>225</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11249,13 +11252,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11273,7 +11276,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11300,15 +11303,15 @@
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11334,16 +11337,16 @@
         <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11368,13 +11371,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11392,7 +11395,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11413,21 +11416,21 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11453,10 +11456,10 @@
         <v>225</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11486,10 +11489,10 @@
         <v>114</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11507,7 +11510,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11528,21 +11531,21 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11568,10 +11571,10 @@
         <v>225</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11601,10 +11604,10 @@
         <v>114</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -11622,7 +11625,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11643,21 +11646,21 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11680,13 +11683,13 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11737,7 +11740,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11758,21 +11761,21 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11798,10 +11801,10 @@
         <v>225</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11828,13 +11831,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -11852,7 +11855,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11873,21 +11876,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11910,16 +11913,16 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11969,7 +11972,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11990,7 +11993,7 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12001,10 +12004,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12116,10 +12119,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12233,14 +12236,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12262,10 +12265,10 @@
         <v>135</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>183</v>
@@ -12320,7 +12323,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12352,10 +12355,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12378,13 +12381,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12435,7 +12438,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>90</v>
@@ -12453,24 +12456,24 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12496,13 +12499,13 @@
         <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12531,10 +12534,10 @@
         <v>218</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -12552,7 +12555,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12573,7 +12576,7 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12584,10 +12587,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12613,13 +12616,13 @@
         <v>225</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12645,13 +12648,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12669,7 +12672,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12701,10 +12704,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12727,13 +12730,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12784,7 +12787,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12805,7 +12808,7 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -12816,10 +12819,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12842,13 +12845,13 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12899,7 +12902,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12914,27 +12917,27 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12957,16 +12960,16 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13016,7 +13019,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13034,10 +13037,10 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -752,7 +752,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -852,7 +852,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1061,7 +1061,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1126,7 +1126,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
+    <t xml:space="preserve">Reference(EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -1207,7 +1207,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1237,7 +1237,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1262,7 +1262,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|4.0.1)
+    <t xml:space="preserve">Reference(Appointment)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1426,7 +1426,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1461,7 +1461,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(Condition|Procedure)
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1514,7 +1514,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account|4.0.1)
+    <t xml:space="preserve">Reference(Account)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
+    <t xml:space="preserve">Reference(Location|Organization)
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1641,7 +1641,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1662,7 +1662,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1683,7 +1683,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1719,7 +1719,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1755,7 +1755,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -1811,7 +1811,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1848,7 +1848,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2180,17 +2180,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2199,27 +2199,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -752,7 +752,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -852,7 +852,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1061,7 +1061,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1126,7 +1126,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1207,7 +1207,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1237,7 +1237,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1262,7 +1262,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1426,7 +1426,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1461,7 +1461,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1514,7 +1514,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1641,7 +1641,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1662,7 +1662,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1683,7 +1683,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1719,7 +1719,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1755,7 +1755,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1811,7 +1811,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1848,7 +1848,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -2180,17 +2180,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2199,27 +2199,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -752,7 +752,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -852,7 +852,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1061,7 +1061,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1126,7 +1126,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
+    <t xml:space="preserve">Reference(EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -1207,7 +1207,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1237,7 +1237,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1262,7 +1262,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|4.0.1)
+    <t xml:space="preserve">Reference(Appointment)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1426,7 +1426,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1461,7 +1461,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(Condition|Procedure)
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1514,7 +1514,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account|4.0.1)
+    <t xml:space="preserve">Reference(Account)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
+    <t xml:space="preserve">Reference(Location|Organization)
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1641,7 +1641,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1662,7 +1662,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1683,7 +1683,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1719,7 +1719,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1755,7 +1755,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -1811,7 +1811,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1848,7 +1848,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2180,17 +2180,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2199,27 +2199,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -752,7 +752,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -852,7 +852,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1061,7 +1061,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1126,7 +1126,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1207,7 +1207,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1237,7 +1237,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1262,7 +1262,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1426,7 +1426,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1461,7 +1461,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1514,7 +1514,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1641,7 +1641,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1662,7 +1662,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1683,7 +1683,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1719,7 +1719,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1755,7 +1755,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1811,7 +1811,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1848,7 +1848,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -2180,17 +2180,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2199,27 +2199,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -739,20 +739,14 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-encounter-identifier"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-encounter-identifier-cs"/&gt;
     &lt;code value="SEJ"/&gt;
     &lt;display value="Identifiant du séjour"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -966,6 +960,9 @@
   </si>
   <si>
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Classification of the encounter.</t>
@@ -2204,8 +2201,8 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.40234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4742,31 +4739,29 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4793,15 +4788,15 @@
         <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4827,16 +4822,16 @@
         <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4846,46 +4841,46 @@
         <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4906,21 +4901,21 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4946,13 +4941,13 @@
         <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4966,7 +4961,7 @@
         <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>81</v>
@@ -5002,7 +4997,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5023,21 +5018,21 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5060,13 +5055,13 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5117,7 +5112,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5138,21 +5133,21 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5175,16 +5170,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5234,7 +5229,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5255,21 +5250,21 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5295,13 +5290,13 @@
         <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5330,10 +5325,10 @@
         <v>218</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5351,7 +5346,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>90</v>
@@ -5369,24 +5364,24 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5409,16 +5404,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5468,7 +5463,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5500,10 +5495,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5615,10 +5610,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5732,14 +5727,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5761,10 +5756,10 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>183</v>
@@ -5819,7 +5814,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5851,10 +5846,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5880,10 +5875,10 @@
         <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5913,10 +5908,10 @@
         <v>218</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5934,7 +5929,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>90</v>
@@ -5966,10 +5961,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5992,13 +5987,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6049,7 +6044,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>90</v>
@@ -6081,10 +6076,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6107,13 +6102,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6140,14 +6135,14 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6164,7 +6159,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>90</v>
@@ -6185,21 +6180,21 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6222,13 +6217,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6279,7 +6274,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6311,10 +6306,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6426,10 +6421,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6543,14 +6538,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6572,10 +6567,10 @@
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>183</v>
@@ -6630,7 +6625,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6662,10 +6657,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6688,13 +6683,13 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6721,14 +6716,14 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6745,7 +6740,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>90</v>
@@ -6777,10 +6772,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6803,13 +6798,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6860,7 +6855,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>90</v>
@@ -6892,10 +6887,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6921,13 +6916,13 @@
         <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6953,14 +6948,14 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6977,7 +6972,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6995,24 +6990,24 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7038,10 +7033,10 @@
         <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7068,14 +7063,14 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7092,7 +7087,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7110,7 +7105,7 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>205</v>
@@ -7119,15 +7114,15 @@
         <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7153,10 +7148,10 @@
         <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7183,14 +7178,14 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7207,7 +7202,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7228,25 +7223,25 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7265,16 +7260,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7324,7 +7319,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7339,27 +7334,27 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7382,13 +7377,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7439,7 +7434,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7457,28 +7452,28 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7497,13 +7492,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7554,7 +7549,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7572,10 +7567,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7586,10 +7581,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7612,13 +7607,13 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7669,7 +7664,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7687,24 +7682,24 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7816,10 +7811,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7933,14 +7928,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7962,10 +7957,10 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>183</v>
@@ -8020,7 +8015,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8052,10 +8047,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8081,13 +8076,13 @@
         <v>225</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8113,13 +8108,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8137,7 +8132,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8155,24 +8150,24 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8195,13 +8190,13 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8252,7 +8247,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8273,21 +8268,21 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8310,13 +8305,13 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8367,7 +8362,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8385,24 +8380,24 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8425,13 +8420,13 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8482,7 +8477,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8500,24 +8495,24 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8540,16 +8535,16 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8599,7 +8594,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8617,24 +8612,24 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8746,10 +8741,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8863,10 +8858,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8889,16 +8884,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8948,7 +8943,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8957,33 +8952,33 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9006,68 +9001,68 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9076,33 +9071,33 @@
         <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9125,16 +9120,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9184,7 +9179,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9202,28 +9197,28 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9245,13 +9240,13 @@
         <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9280,11 +9275,11 @@
         <v>114</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9301,7 +9296,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9319,28 +9314,28 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9359,16 +9354,16 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="M62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9418,7 +9413,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9436,24 +9431,24 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9476,13 +9471,13 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9533,7 +9528,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9554,7 +9549,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9565,10 +9560,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9680,10 +9675,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9797,14 +9792,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9826,10 +9821,10 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>183</v>
@@ -9884,7 +9879,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9916,14 +9911,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9942,16 +9937,16 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10001,7 +9996,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10019,24 +10014,24 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10062,10 +10057,10 @@
         <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10095,11 +10090,11 @@
         <v>114</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10116,7 +10111,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10148,10 +10143,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10174,13 +10169,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10231,7 +10226,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10252,7 +10247,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10263,10 +10258,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10289,16 +10284,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10348,7 +10343,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10369,7 +10364,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10380,10 +10375,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10406,16 +10401,16 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10465,7 +10460,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10486,7 +10481,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10497,10 +10492,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10612,10 +10607,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10729,14 +10724,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10758,10 +10753,10 @@
         <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>183</v>
@@ -10816,7 +10811,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10848,10 +10843,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10877,10 +10872,10 @@
         <v>187</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10931,7 +10926,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10958,15 +10953,15 @@
         <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10989,13 +10984,13 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11046,7 +11041,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11067,7 +11062,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11078,10 +11073,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11107,10 +11102,10 @@
         <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11140,11 +11135,11 @@
         <v>114</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11161,7 +11156,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11182,21 +11177,21 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11222,10 +11217,10 @@
         <v>225</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11252,14 +11247,14 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11276,7 +11271,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11303,15 +11298,15 @@
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11337,16 +11332,16 @@
         <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11371,14 +11366,14 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11395,7 +11390,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11416,21 +11411,21 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11456,10 +11451,10 @@
         <v>225</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11489,11 +11484,11 @@
         <v>114</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11510,7 +11505,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11531,21 +11526,21 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11571,10 +11566,10 @@
         <v>225</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11604,11 +11599,11 @@
         <v>114</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11625,7 +11620,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11646,21 +11641,21 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11683,13 +11678,13 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11740,7 +11735,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11761,21 +11756,21 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>542</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11801,10 +11796,10 @@
         <v>225</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11831,14 +11826,14 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
       </c>
@@ -11855,7 +11850,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11876,21 +11871,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11913,16 +11908,16 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11972,7 +11967,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11993,7 +11988,7 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12004,10 +11999,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12119,10 +12114,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12236,14 +12231,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12265,10 +12260,10 @@
         <v>135</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>183</v>
@@ -12323,7 +12318,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12355,10 +12350,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12381,13 +12376,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12438,7 +12433,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>90</v>
@@ -12456,24 +12451,24 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AM88" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12499,13 +12494,13 @@
         <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12534,11 +12529,11 @@
         <v>218</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12555,7 +12550,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12576,7 +12571,7 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12587,10 +12582,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12616,13 +12611,13 @@
         <v>225</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12648,14 +12643,14 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12672,7 +12667,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12704,10 +12699,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12730,13 +12725,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12787,7 +12782,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12808,7 +12803,7 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -12819,10 +12814,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12845,13 +12840,13 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12902,7 +12897,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12917,27 +12912,27 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>587</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12960,16 +12955,16 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13019,7 +13014,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13037,10 +13032,10 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -504,7 +504,7 @@
     <t>TDDUIAdmissionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>TDDUIEntryModelabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>TDDUIExitModeLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1073,7 +1073,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1614,7 +1614,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1823,7 +1823,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2187,7 +2187,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="150.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2202,7 +2202,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.40234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -504,7 +504,7 @@
     <t>TDDUIAdmissionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>TDDUIEntryModelabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>TDDUIExitModeLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs|2.2.0-ballot</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1073,7 +1073,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
 </t>
   </si>
   <si>
@@ -1614,7 +1614,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1823,7 +1823,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
 </t>
   </si>
   <si>
@@ -2187,7 +2187,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="150.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2202,7 +2202,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.91015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.40234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -504,7 +504,7 @@
     <t>TDDUIAdmissionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>TDDUIEntryModelabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>TDDUIExitModeLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1073,7 +1073,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1614,7 +1614,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1823,7 +1823,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2187,7 +2187,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="150.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2202,7 +2202,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.40234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
